--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4421816666666667</v>
+        <v>0.04678466666666666</v>
       </c>
       <c r="H2">
-        <v>1.326545</v>
+        <v>0.140354</v>
       </c>
       <c r="I2">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762189</v>
       </c>
       <c r="J2">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N2">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O2">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P2">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q2">
-        <v>45.75548183250611</v>
+        <v>6.537151202763999</v>
       </c>
       <c r="R2">
-        <v>411.799336492555</v>
+        <v>58.83436082487599</v>
       </c>
       <c r="S2">
-        <v>0.05289957504525179</v>
+        <v>0.006109509340046645</v>
       </c>
       <c r="T2">
-        <v>0.05289957504525179</v>
+        <v>0.006109509340046644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4421816666666667</v>
+        <v>0.04678466666666666</v>
       </c>
       <c r="H3">
-        <v>1.326545</v>
+        <v>0.140354</v>
       </c>
       <c r="I3">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762189</v>
       </c>
       <c r="J3">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.479739</v>
       </c>
       <c r="O3">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P3">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q3">
-        <v>0.3654983746394445</v>
+        <v>0.03867125417844445</v>
       </c>
       <c r="R3">
-        <v>3.289485371755001</v>
+        <v>0.348041287606</v>
       </c>
       <c r="S3">
-        <v>0.0004225659510904959</v>
+        <v>3.614149057690896E-05</v>
       </c>
       <c r="T3">
-        <v>0.0004225659510904958</v>
+        <v>3.614149057690896E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4421816666666667</v>
+        <v>0.04678466666666666</v>
       </c>
       <c r="H4">
-        <v>1.326545</v>
+        <v>0.140354</v>
       </c>
       <c r="I4">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762189</v>
       </c>
       <c r="J4">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>40.741645</v>
       </c>
       <c r="O4">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P4">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q4">
-        <v>6.005069496280556</v>
+        <v>0.6353614269255554</v>
       </c>
       <c r="R4">
-        <v>54.045625466525</v>
+        <v>5.718252842329999</v>
       </c>
       <c r="S4">
-        <v>0.00694267903534055</v>
+        <v>0.0005937978871386343</v>
       </c>
       <c r="T4">
-        <v>0.006942679035340548</v>
+        <v>0.0005937978871386342</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>19.109726</v>
       </c>
       <c r="I5">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810419</v>
       </c>
       <c r="J5">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810418</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N5">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O5">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P5">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q5">
-        <v>659.1368712084171</v>
+        <v>890.057770390516</v>
       </c>
       <c r="R5">
-        <v>5932.231840875754</v>
+        <v>8010.519933514644</v>
       </c>
       <c r="S5">
-        <v>0.7620520861570464</v>
+        <v>0.831832719286463</v>
       </c>
       <c r="T5">
-        <v>0.7620520861570463</v>
+        <v>0.8318327192864629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>19.109726</v>
       </c>
       <c r="I6">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810419</v>
       </c>
       <c r="J6">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810418</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.479739</v>
       </c>
       <c r="O6">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P6">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q6">
         <v>5.265236982390445</v>
@@ -818,10 +818,10 @@
         <v>47.387132841514</v>
       </c>
       <c r="S6">
-        <v>0.006087331784650182</v>
+        <v>0.00492080013506072</v>
       </c>
       <c r="T6">
-        <v>0.00608733178465018</v>
+        <v>0.004920800135060719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>19.109726</v>
       </c>
       <c r="I7">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810419</v>
       </c>
       <c r="J7">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810418</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>40.741645</v>
       </c>
       <c r="O7">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P7">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q7">
         <v>86.50685252658555</v>
@@ -880,10 +880,10 @@
         <v>778.5616727392699</v>
       </c>
       <c r="S7">
-        <v>0.1000137153819148</v>
+        <v>0.08084781995951826</v>
       </c>
       <c r="T7">
-        <v>0.1000137153819148</v>
+        <v>0.08084781995951826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5252196666666666</v>
+        <v>0.5252196666666668</v>
       </c>
       <c r="H8">
         <v>1.575659</v>
       </c>
       <c r="I8">
-        <v>0.07158204664470585</v>
+        <v>0.07565921190119594</v>
       </c>
       <c r="J8">
-        <v>0.07158204664470584</v>
+        <v>0.07565921190119593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N8">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O8">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P8">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q8">
-        <v>54.34797669790677</v>
+        <v>73.38815514339402</v>
       </c>
       <c r="R8">
-        <v>489.131790281161</v>
+        <v>660.4933962905461</v>
       </c>
       <c r="S8">
-        <v>0.06283367056242072</v>
+        <v>0.06858731049509498</v>
       </c>
       <c r="T8">
-        <v>0.0628336705624207</v>
+        <v>0.06858731049509496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5252196666666666</v>
+        <v>0.5252196666666668</v>
       </c>
       <c r="H9">
         <v>1.575659</v>
       </c>
       <c r="I9">
-        <v>0.07158204664470585</v>
+        <v>0.07565921190119594</v>
       </c>
       <c r="J9">
-        <v>0.07158204664470584</v>
+        <v>0.07565921190119593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.479739</v>
       </c>
       <c r="O9">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P9">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q9">
         <v>0.4341358970001112</v>
       </c>
       <c r="R9">
-        <v>3.907223073001</v>
+        <v>3.907223073001001</v>
       </c>
       <c r="S9">
-        <v>0.0005019202845959236</v>
+        <v>0.0004057359597939625</v>
       </c>
       <c r="T9">
-        <v>0.0005019202845959234</v>
+        <v>0.0004057359597939625</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5252196666666666</v>
+        <v>0.5252196666666668</v>
       </c>
       <c r="H10">
         <v>1.575659</v>
       </c>
       <c r="I10">
-        <v>0.07158204664470585</v>
+        <v>0.07565921190119594</v>
       </c>
       <c r="J10">
-        <v>0.07158204664470584</v>
+        <v>0.07565921190119593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>40.741645</v>
       </c>
       <c r="O10">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P10">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q10">
-        <v>7.132771068783888</v>
+        <v>7.13277106878389</v>
       </c>
       <c r="R10">
-        <v>64.19493961905499</v>
+        <v>64.19493961905501</v>
       </c>
       <c r="S10">
-        <v>0.008246455797689227</v>
+        <v>0.006666165446307007</v>
       </c>
       <c r="T10">
-        <v>0.008246455797689223</v>
+        <v>0.006666165446307006</v>
       </c>
     </row>
   </sheetData>
